--- a/Ejecuciones.xlsx
+++ b/Ejecuciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\Escritorio\MASTER_IA_VIU\8. APRENDIZAJE POR REFUERZO\PROYECTO\Repo\08MIAR_10_B_2024-25_Aprendizaje_por_refuerzo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A192505F-C43B-4764-A450-F0E64107B8DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A7B3F6-E985-45E2-8E19-992D7FEEFE90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7FF5832E-C3AE-4E35-BBDB-52F2B95C25D3}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{7FF5832E-C3AE-4E35-BBDB-52F2B95C25D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="83">
   <si>
     <t>0.0.0.1</t>
   </si>
@@ -232,12 +232,6 @@
     <t>20k</t>
   </si>
   <si>
-    <t>Red 1.1</t>
-  </si>
-  <si>
-    <t>Red1</t>
-  </si>
-  <si>
     <t>BatchNormalization</t>
   </si>
   <si>
@@ -278,6 +272,48 @@
   </si>
   <si>
     <t>max</t>
+  </si>
+  <si>
+    <t>1.0.0.5</t>
+  </si>
+  <si>
+    <t>1.0.0.6</t>
+  </si>
+  <si>
+    <t>2.0.0.1</t>
+  </si>
+  <si>
+    <t>Padding</t>
+  </si>
+  <si>
+    <t>Same</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>MaxPooling2D 2x2</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>1.8M</t>
+  </si>
+  <si>
+    <t>2M</t>
+  </si>
+  <si>
+    <t>Red 2</t>
+  </si>
+  <si>
+    <t>Red 4</t>
+  </si>
+  <si>
+    <t>Red 3</t>
+  </si>
+  <si>
+    <t>2x2</t>
   </si>
 </sst>
 </file>
@@ -357,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -380,9 +416,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -392,8 +425,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -729,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4BBB7D-FA23-41CE-8010-CD883BC70014}">
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -768,7 +801,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>44</v>
@@ -801,13 +834,13 @@
         <v>15</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="S1" s="5" t="s">
         <v>16</v>
@@ -875,10 +908,10 @@
         <v>1</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>35</v>
@@ -895,7 +928,7 @@
       <c r="V2" s="2">
         <v>5</v>
       </c>
-      <c r="W2" s="11">
+      <c r="W2" s="10">
         <v>14.6</v>
       </c>
       <c r="X2" s="2">
@@ -949,10 +982,10 @@
         <v>1</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>35</v>
@@ -969,7 +1002,7 @@
       <c r="V3" s="2">
         <v>10</v>
       </c>
-      <c r="W3" s="10">
+      <c r="W3" s="9">
         <v>18.100000000000001</v>
       </c>
       <c r="X3" s="2">
@@ -1023,10 +1056,10 @@
         <v>1</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>35</v>
@@ -1043,7 +1076,7 @@
       <c r="V4" s="2">
         <v>10</v>
       </c>
-      <c r="W4" s="11">
+      <c r="W4" s="10">
         <v>10.8</v>
       </c>
       <c r="X4" s="2">
@@ -1055,7 +1088,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>49</v>
@@ -1076,10 +1109,10 @@
         <v>0.05</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>48</v>
@@ -1097,10 +1130,10 @@
         <v>1</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>35</v>
@@ -1117,7 +1150,7 @@
       <c r="V5" s="2">
         <v>20</v>
       </c>
-      <c r="W5" s="9">
+      <c r="W5" s="8">
         <v>2.2000000000000002</v>
       </c>
       <c r="X5" s="2">
@@ -1129,10 +1162,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>43</v>
@@ -1150,13 +1183,13 @@
         <v>0.05</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L6" s="1">
         <v>0.99</v>
@@ -1171,10 +1204,10 @@
         <v>1</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>35</v>
@@ -1191,7 +1224,7 @@
       <c r="V6" s="2">
         <v>20</v>
       </c>
-      <c r="W6" s="11">
+      <c r="W6" s="10">
         <v>7.7</v>
       </c>
       <c r="X6" s="2">
@@ -1203,13 +1236,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -1227,7 +1260,7 @@
         <v>35</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>54</v>
@@ -1245,13 +1278,13 @@
         <v>1</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R7" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>17</v>
@@ -1265,7 +1298,7 @@
       <c r="V7" s="2">
         <v>20</v>
       </c>
-      <c r="W7" s="11">
+      <c r="W7" s="10">
         <v>14.45</v>
       </c>
       <c r="X7" s="2">
@@ -1277,13 +1310,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -1301,7 +1334,7 @@
         <v>35</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>54</v>
@@ -1319,13 +1352,13 @@
         <v>1</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R8" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>17</v>
@@ -1339,7 +1372,7 @@
       <c r="V8" s="2">
         <v>20</v>
       </c>
-      <c r="W8" s="10">
+      <c r="W8" s="9">
         <v>17</v>
       </c>
       <c r="X8" s="2">
@@ -1347,10 +1380,214 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="W9" s="12"/>
+      <c r="A9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N9" s="1">
+        <v>5</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V9" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="W10" s="12"/>
+      <c r="A10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="1">
+        <v>4</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T10" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V10" s="2">
+        <v>10</v>
+      </c>
+      <c r="W10" s="9">
+        <v>18.8</v>
+      </c>
+      <c r="X10" s="2">
+        <v>14117.944</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N11" s="1">
+        <v>5</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T11" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V11" s="2">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1361,20 +1598,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88B7C56-FF42-4D39-BD0D-D1FD90D1B105}">
-  <dimension ref="A2:F20"/>
+  <dimension ref="A2:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>23</v>
@@ -1391,8 +1629,11 @@
       <c r="F2" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
@@ -1408,8 +1649,11 @@
       <c r="F3" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
@@ -1425,8 +1669,11 @@
       <c r="F4" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
@@ -1442,8 +1689,11 @@
       <c r="F5" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>34</v>
       </c>
@@ -1460,7 +1710,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>34</v>
@@ -1478,27 +1728,27 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -1515,8 +1765,11 @@
       <c r="F11" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>21</v>
@@ -1533,18 +1786,21 @@
       <c r="F12" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>21</v>
@@ -1561,18 +1817,21 @@
       <c r="F14" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="B15" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
@@ -1588,17 +1847,20 @@
       <c r="F16" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>34</v>
       </c>
@@ -1615,16 +1877,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
@@ -1641,12 +1903,314 @@
         <v>37</v>
       </c>
     </row>
+    <row r="23" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="2">
+        <v>32</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="2">
+        <v>64</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="2">
+        <v>128</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="2">
+        <v>128</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="2">
+        <v>32</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="2"/>
+      <c r="B39" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="2">
+        <v>64</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="2"/>
+      <c r="B41" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="2">
+        <v>128</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B44" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="2">
+        <v>128</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="10">
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B41:F41"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B25:F25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Ejecuciones.xlsx
+++ b/Ejecuciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\Escritorio\MASTER_IA_VIU\8. APRENDIZAJE POR REFUERZO\PROYECTO\Repo\08MIAR_10_B_2024-25_Aprendizaje_por_refuerzo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A7B3F6-E985-45E2-8E19-992D7FEEFE90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092CB8B4-E128-437D-9E1B-E9B5CB8A0D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{7FF5832E-C3AE-4E35-BBDB-52F2B95C25D3}"/>
   </bookViews>
@@ -56,12 +56,39 @@
         </r>
       </text>
     </comment>
+    <comment ref="W8" authorId="0" shapeId="0" xr:uid="{78C1B1B5-2E2F-4095-B276-8260184B427F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Da la misma recompensa para todas las muestras de test, desconozco el motivo
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W9" authorId="0" shapeId="0" xr:uid="{3B9E91B8-0125-43E1-86EE-F8954D1C9FE8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Da la misma recompensa para todas las muestras de test, desconozco el motivo</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="84">
   <si>
     <t>0.0.0.1</t>
   </si>
@@ -299,6 +326,9 @@
   </si>
   <si>
     <t>1.8M</t>
+  </si>
+  <si>
+    <t>1.0.0.7</t>
   </si>
   <si>
     <t>2M</t>
@@ -320,7 +350,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,6 +377,12 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -762,10 +798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4BBB7D-FA23-41CE-8010-CD883BC70014}">
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:X12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -780,11 +816,14 @@
     <col min="11" max="11" width="16.44140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="19.6640625" style="1" customWidth="1"/>
     <col min="13" max="13" width="21.109375" style="1" customWidth="1"/>
-    <col min="14" max="15" width="11.5546875" style="1"/>
+    <col min="14" max="14" width="13.5546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5546875" style="1"/>
     <col min="16" max="16" width="19.21875" style="1" customWidth="1"/>
     <col min="17" max="17" width="23.6640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="21.5546875" style="1" customWidth="1"/>
-    <col min="19" max="21" width="11.5546875" style="1"/>
+    <col min="18" max="18" width="12.88671875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5546875" style="1"/>
+    <col min="20" max="20" width="12" style="1" customWidth="1"/>
+    <col min="21" max="21" width="11.5546875" style="1"/>
     <col min="22" max="22" width="21" style="2" customWidth="1"/>
     <col min="23" max="23" width="12.88671875" style="2" customWidth="1"/>
     <col min="24" max="24" width="11.5546875" style="2"/>
@@ -1088,7 +1127,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>49</v>
@@ -1162,7 +1201,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>58</v>
@@ -1236,7 +1275,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>49</v>
@@ -1310,7 +1349,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>49</v>
@@ -1384,7 +1423,7 @@
         <v>69</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>49</v>
@@ -1445,6 +1484,12 @@
       </c>
       <c r="V9" s="2">
         <v>20</v>
+      </c>
+      <c r="W9" s="9">
+        <v>18</v>
+      </c>
+      <c r="X9" s="2">
+        <v>5875.0969999999998</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
@@ -1452,7 +1497,7 @@
         <v>71</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>76</v>
@@ -1526,7 +1571,7 @@
         <v>70</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>76</v>
@@ -1547,7 +1592,7 @@
         <v>0.05</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>59</v>
@@ -1586,6 +1631,74 @@
         <v>20</v>
       </c>
       <c r="V11" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N12" s="1">
+        <v>5</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T12" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V12" s="2">
         <v>20</v>
       </c>
     </row>
@@ -1748,7 +1861,7 @@
     </row>
     <row r="11" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -1905,7 +2018,7 @@
     </row>
     <row r="23" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>23</v>
@@ -2053,7 +2166,7 @@
     </row>
     <row r="37" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>23</v>
@@ -2144,7 +2257,7 @@
         <v>128</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>33</v>

--- a/Ejecuciones.xlsx
+++ b/Ejecuciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\Escritorio\MASTER_IA_VIU\8. APRENDIZAJE POR REFUERZO\PROYECTO\Repo\08MIAR_10_B_2024-25_Aprendizaje_por_refuerzo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092CB8B4-E128-437D-9E1B-E9B5CB8A0D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DFED58-B897-4F77-92D6-56EBABB028D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{7FF5832E-C3AE-4E35-BBDB-52F2B95C25D3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7FF5832E-C3AE-4E35-BBDB-52F2B95C25D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="85">
   <si>
     <t>0.0.0.1</t>
   </si>
@@ -344,6 +344,9 @@
   </si>
   <si>
     <t>2x2</t>
+  </si>
+  <si>
+    <t>1.0.0.8</t>
   </si>
 </sst>
 </file>
@@ -429,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -463,6 +466,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -798,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4BBB7D-FA23-41CE-8010-CD883BC70014}">
-  <dimension ref="A1:X12"/>
+  <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1633,6 +1639,12 @@
       <c r="V11" s="2">
         <v>20</v>
       </c>
+      <c r="W11" s="8">
+        <v>0</v>
+      </c>
+      <c r="X11" s="2">
+        <v>11389.694</v>
+      </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -1700,6 +1712,86 @@
       </c>
       <c r="V12" s="2">
         <v>20</v>
+      </c>
+      <c r="W12" s="8">
+        <v>0</v>
+      </c>
+      <c r="X12" s="2">
+        <v>43680.553999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N13" s="1">
+        <v>4</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T13" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V13" s="2">
+        <v>20</v>
+      </c>
+      <c r="W13" s="10">
+        <v>10.8</v>
+      </c>
+      <c r="X13" s="12">
+        <v>12414.788</v>
       </c>
     </row>
   </sheetData>
@@ -1711,10 +1803,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88B7C56-FF42-4D39-BD0D-D1FD90D1B105}">
-  <dimension ref="A2:G45"/>
+  <dimension ref="A2:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2092,100 +2184,112 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
+      <c r="B27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="2">
+        <v>128</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C28" s="2">
         <v>128</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="2">
-        <v>128</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="2" t="s">
+      <c r="C29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="2">
+        <v>32</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>72</v>
-      </c>
+      <c r="G36" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="2"/>
+      <c r="B37" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
@@ -2193,10 +2297,10 @@
         <v>21</v>
       </c>
       <c r="C38" s="2">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>33</v>
@@ -2219,15 +2323,14 @@
       <c r="F39" s="11"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C40" s="2">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>33</v>
@@ -2240,7 +2343,6 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="2"/>
       <c r="B41" s="11" t="s">
         <v>55</v>
       </c>
@@ -2251,74 +2353,43 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C42" s="2">
         <v>128</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B43" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B44" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C44" s="2">
-        <v>128</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B45" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C45" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F45" s="2" t="s">
+      <c r="D43" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B29:F29"/>
+  <mergeCells count="8">
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B37:F37"/>
     <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B41:F41"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="B17:F17"/>

--- a/Ejecuciones.xlsx
+++ b/Ejecuciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\Escritorio\MASTER_IA_VIU\8. APRENDIZAJE POR REFUERZO\PROYECTO\Repo\08MIAR_10_B_2024-25_Aprendizaje_por_refuerzo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DFED58-B897-4F77-92D6-56EBABB028D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD21B44-37D5-4F2A-B130-EF5977FE0199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7FF5832E-C3AE-4E35-BBDB-52F2B95C25D3}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{7FF5832E-C3AE-4E35-BBDB-52F2B95C25D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -83,12 +83,26 @@
         </r>
       </text>
     </comment>
+    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{583EA66B-B73A-4D76-A2CB-84DE2110E16E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Se parte de los pesos de 3.0.0.1
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="94">
   <si>
     <t>0.0.0.1</t>
   </si>
@@ -347,6 +361,33 @@
   </si>
   <si>
     <t>1.0.0.8</t>
+  </si>
+  <si>
+    <t>Red 5</t>
+  </si>
+  <si>
+    <t>Red 6</t>
+  </si>
+  <si>
+    <t>3.0.0.1</t>
+  </si>
+  <si>
+    <t>3.0.0.2</t>
+  </si>
+  <si>
+    <t>personalizada: FireBiasPolicy</t>
+  </si>
+  <si>
+    <t>3.0.0.3</t>
+  </si>
+  <si>
+    <t>2.0.0.2</t>
+  </si>
+  <si>
+    <t>2.0.0.3</t>
+  </si>
+  <si>
+    <t>avg</t>
   </si>
 </sst>
 </file>
@@ -432,7 +473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -466,9 +507,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -804,18 +842,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4BBB7D-FA23-41CE-8010-CD883BC70014}">
-  <dimension ref="A1:X13"/>
+  <dimension ref="A1:X18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="1"/>
+    <col min="1" max="1" width="27" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" style="1"/>
-    <col min="4" max="4" width="21.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
     <col min="6" max="9" width="21.5546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="18.21875" style="1" customWidth="1"/>
@@ -1790,8 +1828,369 @@
       <c r="W13" s="10">
         <v>10.8</v>
       </c>
-      <c r="X13" s="12">
+      <c r="X13" s="2">
         <v>12414.788</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N14" s="1">
+        <v>4</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T14" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V14" s="2">
+        <v>10</v>
+      </c>
+      <c r="W14" s="9">
+        <v>16.3</v>
+      </c>
+      <c r="X14" s="2">
+        <v>1396.2380000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N15" s="1">
+        <v>4</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T15" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V15" s="2">
+        <v>10</v>
+      </c>
+      <c r="W15" s="10">
+        <v>12.1</v>
+      </c>
+      <c r="X15" s="2">
+        <v>1408.617</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N16" s="1">
+        <v>4</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T16" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V16" s="2">
+        <v>10</v>
+      </c>
+      <c r="X16" s="2">
+        <v>1488.6990000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N17" s="1">
+        <v>4</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T17" s="1">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V17" s="2">
+        <v>10</v>
+      </c>
+      <c r="W17" s="9">
+        <v>17</v>
+      </c>
+      <c r="X17" s="2">
+        <v>25600.142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N18" s="1">
+        <v>24</v>
+      </c>
+      <c r="O18" s="1">
+        <v>1</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T18" s="1">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V18" s="2">
+        <v>10</v>
+      </c>
+      <c r="W18" s="10">
+        <v>12.6</v>
+      </c>
+      <c r="X18" s="2">
+        <v>8731.0310000000009</v>
       </c>
     </row>
   </sheetData>
@@ -1803,10 +2202,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88B7C56-FF42-4D39-BD0D-D1FD90D1B105}">
-  <dimension ref="A2:G43"/>
+  <dimension ref="A2:G55"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1815,7 +2214,7 @@
     <col min="3" max="3" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1951,7 +2350,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>80</v>
       </c>
@@ -2108,90 +2507,70 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+    <row r="24" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="2">
-        <v>32</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
-      <c r="B25" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
+      <c r="B25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="2">
+        <v>32</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
-      <c r="B26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="2">
-        <v>64</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="B26" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C27" s="2">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>33</v>
@@ -2205,158 +2584,195 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C28" s="2">
         <v>128</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>29</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="2">
+        <v>128</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" s="2" t="s">
+      <c r="D30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+    <row r="34" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F34" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G34" s="3" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="2">
+        <v>32</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
-      <c r="B36" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="2">
-        <v>32</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="B36" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
-      <c r="B37" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
+      <c r="B37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="2">
+        <v>64</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="2">
-        <v>64</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E38" s="2" t="s">
+      <c r="C39" s="2">
+        <v>128</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="2"/>
-      <c r="B39" s="11" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B40" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="2">
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="2">
         <v>128</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F40" s="2" t="s">
+      <c r="D41" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B41" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="2">
-        <v>128</v>
+      <c r="C42" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>35</v>
@@ -2365,36 +2781,97 @@
         <v>35</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B43" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F43" s="2" t="s">
         <v>37</v>
       </c>
     </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="2"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B39:F39"/>
+  <mergeCells count="10">
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B38:F38"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Ejecuciones.xlsx
+++ b/Ejecuciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\Escritorio\MASTER_IA_VIU\8. APRENDIZAJE POR REFUERZO\PROYECTO\Repo\08MIAR_10_B_2024-25_Aprendizaje_por_refuerzo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD21B44-37D5-4F2A-B130-EF5977FE0199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D009682-26D9-426F-86E3-7D2E32D5B991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{7FF5832E-C3AE-4E35-BBDB-52F2B95C25D3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7FF5832E-C3AE-4E35-BBDB-52F2B95C25D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -56,33 +56,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="W8" authorId="0" shapeId="0" xr:uid="{78C1B1B5-2E2F-4095-B276-8260184B427F}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Da la misma recompensa para todas las muestras de test, desconozco el motivo
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W9" authorId="0" shapeId="0" xr:uid="{3B9E91B8-0125-43E1-86EE-F8954D1C9FE8}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Da la misma recompensa para todas las muestras de test, desconozco el motivo</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="A16" authorId="0" shapeId="0" xr:uid="{583EA66B-B73A-4D76-A2CB-84DE2110E16E}">
       <text>
         <r>
@@ -102,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="100">
   <si>
     <t>0.0.0.1</t>
   </si>
@@ -388,6 +361,24 @@
   </si>
   <si>
     <t>avg</t>
+  </si>
+  <si>
+    <t>1.0.0.9</t>
+  </si>
+  <si>
+    <t>1.0.1.0</t>
+  </si>
+  <si>
+    <t>Dropout 0.25</t>
+  </si>
+  <si>
+    <t>2.0.0.4</t>
+  </si>
+  <si>
+    <t>Red 7</t>
+  </si>
+  <si>
+    <t>1.5M</t>
   </si>
 </sst>
 </file>
@@ -461,7 +452,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -469,11 +460,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -507,6 +513,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -842,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4BBB7D-FA23-41CE-8010-CD883BC70014}">
-  <dimension ref="A1:X18"/>
+  <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W17" sqref="W17"/>
+      <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -868,7 +877,7 @@
     <col min="19" max="19" width="11.5546875" style="1"/>
     <col min="20" max="20" width="12" style="1" customWidth="1"/>
     <col min="21" max="21" width="11.5546875" style="1"/>
-    <col min="22" max="22" width="21" style="2" customWidth="1"/>
+    <col min="22" max="22" width="17" style="2" customWidth="1"/>
     <col min="23" max="23" width="12.88671875" style="2" customWidth="1"/>
     <col min="24" max="24" width="11.5546875" style="2"/>
   </cols>
@@ -960,14 +969,14 @@
       <c r="E2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>35</v>
+      <c r="F2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.1</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>35</v>
@@ -1583,10 +1592,10 @@
         <v>35</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>35</v>
@@ -1805,10 +1814,10 @@
         <v>35</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>35</v>
@@ -1879,10 +1888,10 @@
         <v>1</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>35</v>
@@ -1911,7 +1920,7 @@
         <v>88</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>49</v>
@@ -1953,10 +1962,10 @@
         <v>1</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>35</v>
@@ -1985,7 +1994,7 @@
         <v>90</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>49</v>
@@ -2027,10 +2036,10 @@
         <v>1</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="R16" s="1" t="s">
         <v>35</v>
@@ -2045,7 +2054,10 @@
         <v>20</v>
       </c>
       <c r="V16" s="2">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="W16" s="10">
+        <v>15</v>
       </c>
       <c r="X16" s="2">
         <v>1488.6990000000001</v>
@@ -2056,7 +2068,7 @@
         <v>91</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>76</v>
@@ -2074,6 +2086,9 @@
         <v>0.01</v>
       </c>
       <c r="I17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>76</v>
       </c>
       <c r="K17" s="1" t="s">
@@ -2124,7 +2139,7 @@
         <v>92</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>76</v>
@@ -2191,6 +2206,228 @@
       </c>
       <c r="X18" s="2">
         <v>8731.0310000000009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N19" s="1">
+        <v>4</v>
+      </c>
+      <c r="O19" s="1">
+        <v>1</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T19" s="1">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V19" s="2">
+        <v>10</v>
+      </c>
+      <c r="W19" s="10">
+        <v>10.1</v>
+      </c>
+      <c r="X19" s="2">
+        <v>61423.457999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N20" s="1">
+        <v>24</v>
+      </c>
+      <c r="O20" s="1">
+        <v>1</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T20" s="1">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V20" s="2">
+        <v>10</v>
+      </c>
+      <c r="W20" s="9">
+        <v>16.2</v>
+      </c>
+      <c r="X20" s="2">
+        <v>5191.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N21" s="1">
+        <v>4</v>
+      </c>
+      <c r="O21" s="1">
+        <v>1</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T21" s="1">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V21" s="2">
+        <v>10</v>
+      </c>
+      <c r="W21" s="12">
+        <v>21.3</v>
+      </c>
+      <c r="X21" s="2">
+        <v>89885.578999999998</v>
       </c>
     </row>
   </sheetData>
@@ -2202,10 +2439,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88B7C56-FF42-4D39-BD0D-D1FD90D1B105}">
-  <dimension ref="A2:G55"/>
+  <dimension ref="A2:G71"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:XFD52"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="I74" sqref="I74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2784,86 +3021,385 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="2"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
+    <row r="46" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
+      <c r="A47" s="2"/>
+      <c r="B47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="2">
+        <v>32</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
+      <c r="A48" s="2"/>
+      <c r="B48" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="2">
+        <v>64</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
+      <c r="B49" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="2">
+        <v>512</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
+      <c r="B50" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" s="2">
+        <v>512</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
+      <c r="B51" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
+      <c r="B52" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" s="2">
+        <v>32</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="2"/>
+      <c r="B58" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" s="2">
+        <v>64</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B60" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" s="2">
+        <v>64</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B61" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61" s="2">
+        <v>512</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B62" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C67" s="2">
+        <v>32</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68" s="2">
+        <v>64</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B69" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69" s="2">
+        <v>128</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B70" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70" s="2">
+        <v>128</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B71" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="B58:F58"/>
     <mergeCell ref="B40:F40"/>
     <mergeCell ref="B36:F36"/>
     <mergeCell ref="B38:F38"/>
@@ -2872,6 +3408,7 @@
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B51:F51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
